--- a/201025_Results_Cali/output/m2/21102025_mod2_by_main_activity.xlsx
+++ b/201025_Results_Cali/output/m2/21102025_mod2_by_main_activity.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I93"/>
+  <dimension ref="A1:I92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="I33">
-        <v>0.9983</v>
+        <v>0.9919</v>
       </c>
     </row>
     <row r="34">
@@ -1886,7 +1886,7 @@
         </is>
       </c>
       <c r="I34">
-        <v>0.9983</v>
+        <v>0.9919</v>
       </c>
     </row>
     <row r="35">
@@ -1931,7 +1931,7 @@
         </is>
       </c>
       <c r="I35">
-        <v>0.9983</v>
+        <v>0.9919</v>
       </c>
     </row>
     <row r="36">
@@ -1976,7 +1976,7 @@
         </is>
       </c>
       <c r="I36">
-        <v>0.9983</v>
+        <v>0.9919</v>
       </c>
     </row>
     <row r="37">
@@ -1997,31 +1997,31 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>45 (83.3%)</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>16 (94.1%)</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>1 (0.3%)</t>
+          <t>250 (83.1%)</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>9 (69.2%)</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>42 (87.5%)</t>
         </is>
       </c>
       <c r="I37">
-        <v>0.9983</v>
+        <v>0.9919</v>
       </c>
     </row>
     <row r="38">
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="I38">
-        <v>0.9983</v>
+        <v>0.9919</v>
       </c>
     </row>
     <row r="39">
@@ -2082,52 +2082,52 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>No aplica</t>
+          <t>No sabe / No responde</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>45 (83.3%)</t>
+          <t>1 (1.9%)</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>16 (94.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>249 (82.7%)</t>
+          <t>5 (1.7%)</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>9 (69.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>42 (87.5%)</t>
+          <t>1 (2.1%)</t>
         </is>
       </c>
       <c r="I39">
-        <v>0.9983</v>
+        <v>0.9919</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>cilindraje_auto_agregado</t>
+          <t>cilindraje_moto_agregado</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Cilindraje de automóviles (agregado)</t>
+          <t>Cilindraje de motocicletas (agregado)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>No sabe / No responde</t>
+          <t>125 cc</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2137,12 +2137,12 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>3 (17.6%)</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>5 (1.7%)</t>
+          <t>40 (13.3%)</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2152,11 +2152,11 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>1 (2.1%)</t>
+          <t>5 (10.4%)</t>
         </is>
       </c>
       <c r="I40">
-        <v>0.9983</v>
+        <v>0.0227</v>
       </c>
     </row>
     <row r="41">
@@ -2172,7 +2172,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>125 cc</t>
+          <t>150 - 250 cc</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2182,12 +2182,12 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>3 (17.6%)</t>
+          <t>2 (11.8%)</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>40 (13.4%)</t>
+          <t>17 (5.6%)</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2197,11 +2197,11 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>5 (10.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I41">
-        <v>0.0236</v>
+        <v>0.0227</v>
       </c>
     </row>
     <row r="42">
@@ -2217,7 +2217,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>150 - 250 cc</t>
+          <t>150 cc</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2227,12 +2227,12 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2 (11.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>17 (5.7%)</t>
+          <t>17 (5.6%)</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="I42">
-        <v>0.0236</v>
+        <v>0.0227</v>
       </c>
     </row>
     <row r="43">
@@ -2262,12 +2262,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>150 cc</t>
+          <t>Eléctrica / No aplica</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1 (1.9%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2277,7 +2277,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>17 (5.7%)</t>
+          <t>1 (0.3%)</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2291,7 +2291,7 @@
         </is>
       </c>
       <c r="I43">
-        <v>0.0236</v>
+        <v>0.0227</v>
       </c>
     </row>
     <row r="44">
@@ -2307,36 +2307,36 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Eléctrica / No aplica</t>
+          <t>Eléctrico / No aplica</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>47 (87.0%)</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>11 (64.7%)</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>1 (0.3%)</t>
+          <t>189 (62.8%)</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>9 (69.2%)</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>41 (85.4%)</t>
         </is>
       </c>
       <c r="I44">
-        <v>0.0236</v>
+        <v>0.0227</v>
       </c>
     </row>
     <row r="45">
@@ -2381,7 +2381,7 @@
         </is>
       </c>
       <c r="I45">
-        <v>0.0236</v>
+        <v>0.0227</v>
       </c>
     </row>
     <row r="46">
@@ -2412,7 +2412,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>32 (10.7%)</t>
+          <t>32 (10.6%)</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2426,7 +2426,7 @@
         </is>
       </c>
       <c r="I46">
-        <v>0.0236</v>
+        <v>0.0227</v>
       </c>
     </row>
     <row r="47">
@@ -2442,123 +2442,123 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>No aplica</t>
+          <t>No sabe / No responde</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>47 (87.0%)</t>
+          <t>1 (1.9%)</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11 (64.7%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>187 (62.5%)</t>
+          <t>4 (1.3%)</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>9 (69.2%)</t>
+          <t>2 (15.4%)</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>40 (85.1%)</t>
+          <t>1 (2.1%)</t>
         </is>
       </c>
       <c r="I47">
-        <v>0.0236</v>
+        <v>0.0227</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>cilindraje_moto_agregado</t>
+          <t>cilindraje_camion_agregado</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Cilindraje de motocicletas (agregado)</t>
+          <t>Cilindraje de camiones (futuro)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>No sabe / No responde</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1 (1.9%)</t>
+          <t>54 (100.0%)</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>17 (100.0%)</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>4 (1.3%)</t>
+          <t>301 (100.0%)</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2 (15.4%)</t>
+          <t>13 (100.0%)</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>1 (2.1%)</t>
-        </is>
-      </c>
-      <c r="I48">
-        <v>0.0236</v>
+          <t>48 (100.0%)</t>
+        </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>cilindraje_camion_agregado</t>
+          <t>modelo_vehiculo_agregado</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Cilindraje de camiones (futuro)</t>
+          <t>Modelo del vehículo (agrupado)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>No aplica</t>
+          <t>2005 - 2010</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>54 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>17 (100.0%)</t>
+          <t>1 (5.9%)</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>301 (100.0%)</t>
+          <t>11 (3.7%)</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>13 (100.0%)</t>
+          <t>1 (7.7%)</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>48 (100.0%)</t>
-        </is>
+          <t>2 (4.2%)</t>
+        </is>
+      </c>
+      <c r="I49">
+        <v>0.0051</v>
       </c>
     </row>
     <row r="50">
@@ -2574,12 +2574,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2005 - 2010</t>
+          <t>2011 - 2015</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>4 (7.4%)</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2589,7 +2589,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>11 (3.7%)</t>
+          <t>27 (9.0%)</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2599,7 +2599,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2 (4.2%)</t>
+          <t>3 (6.2%)</t>
         </is>
       </c>
       <c r="I50">
@@ -2619,7 +2619,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2011 - 2015</t>
+          <t>2016 - 2020</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2629,22 +2629,22 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>1 (5.9%)</t>
+          <t>2 (11.8%)</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>27 (9.0%)</t>
+          <t>46 (15.3%)</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>1 (7.7%)</t>
+          <t>2 (15.4%)</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>3 (6.2%)</t>
+          <t>1 (2.1%)</t>
         </is>
       </c>
       <c r="I51">
@@ -2664,32 +2664,32 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2016 - 2020</t>
+          <t>2021 o más reciente</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>4 (7.4%)</t>
+          <t>2 (3.7%)</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2 (11.8%)</t>
+          <t>3 (17.6%)</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>46 (15.3%)</t>
+          <t>65 (21.6%)</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2 (15.4%)</t>
+          <t>1 (7.7%)</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>1 (2.1%)</t>
+          <t>4 (8.3%)</t>
         </is>
       </c>
       <c r="I52">
@@ -2709,32 +2709,32 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2021 o más reciente</t>
+          <t>Anterior a 2005</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2 (3.7%)</t>
+          <t>3 (5.6%)</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>3 (17.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>65 (21.6%)</t>
+          <t>6 (2.0%)</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>1 (7.7%)</t>
+          <t>2 (15.4%)</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>4 (8.3%)</t>
+          <t>1 (2.1%)</t>
         </is>
       </c>
       <c r="I53">
@@ -2754,32 +2754,32 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Anterior a 2005</t>
+          <t>No aplica</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>3 (5.6%)</t>
+          <t>38 (70.4%)</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>10 (58.8%)</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>6 (2.0%)</t>
+          <t>137 (45.5%)</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>2 (15.4%)</t>
+          <t>5 (38.5%)</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>1 (2.1%)</t>
+          <t>35 (72.9%)</t>
         </is>
       </c>
       <c r="I54">
@@ -2799,32 +2799,32 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>No aplica</t>
+          <t>Sin información</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>38 (70.4%)</t>
+          <t>3 (5.6%)</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10 (58.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>137 (45.5%)</t>
+          <t>9 (3.0%)</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>5 (38.5%)</t>
+          <t>1 (7.7%)</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>35 (72.9%)</t>
+          <t>2 (4.2%)</t>
         </is>
       </c>
       <c r="I55">
@@ -2834,22 +2834,22 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>modelo_vehiculo_agregado</t>
+          <t>p19comuna</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Modelo del vehículo (agrupado)</t>
+          <t>Comuna donde vive</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Sin información</t>
+          <t>Comuna 1</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>3 (5.6%)</t>
+          <t>1 (1.9%)</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2859,12 +2859,12 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>9 (3.0%)</t>
+          <t>8 (2.7%)</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>1 (7.7%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -2873,7 +2873,7 @@
         </is>
       </c>
       <c r="I56">
-        <v>0.0051</v>
+        <v>0.0359</v>
       </c>
     </row>
     <row r="57">
@@ -2889,22 +2889,22 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Comuna 1</t>
+          <t>Comuna 10</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>1 (1.9%)</t>
+          <t>6 (11.1%)</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (5.9%)</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>8 (2.7%)</t>
+          <t>11 (3.7%)</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -2934,32 +2934,32 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Comuna 10</t>
+          <t>Comuna 11</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>6 (11.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>1 (5.9%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>11 (3.7%)</t>
+          <t>10 (3.3%)</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (7.7%)</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2 (4.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I58">
@@ -2979,7 +2979,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Comuna 11</t>
+          <t>Comuna 12</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2994,17 +2994,17 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>10 (3.3%)</t>
+          <t>7 (2.3%)</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>1 (7.7%)</t>
+          <t>2 (15.4%)</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (2.1%)</t>
         </is>
       </c>
       <c r="I59">
@@ -3024,32 +3024,32 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Comuna 12</t>
+          <t>Comuna 13</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>5 (9.3%)</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (5.9%)</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>7 (2.3%)</t>
+          <t>10 (3.3%)</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2 (15.4%)</t>
+          <t>1 (7.7%)</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>1 (2.1%)</t>
+          <t>2 (4.2%)</t>
         </is>
       </c>
       <c r="I60">
@@ -3069,32 +3069,32 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Comuna 13</t>
+          <t>Comuna 14</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>5 (9.3%)</t>
+          <t>6 (11.1%)</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>1 (5.9%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>10 (3.3%)</t>
+          <t>11 (3.7%)</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>1 (7.7%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2 (4.2%)</t>
+          <t>3 (6.2%)</t>
         </is>
       </c>
       <c r="I61">
@@ -3114,32 +3114,32 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Comuna 14</t>
+          <t>Comuna 15</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>6 (11.1%)</t>
+          <t>3 (5.6%)</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>3 (17.6%)</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>11 (3.7%)</t>
+          <t>13 (4.3%)</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (7.7%)</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>3 (6.2%)</t>
+          <t>4 (8.3%)</t>
         </is>
       </c>
       <c r="I62">
@@ -3159,32 +3159,32 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Comuna 15</t>
+          <t>Comuna 16</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>3 (5.6%)</t>
+          <t>1 (1.9%)</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>3 (17.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>13 (4.3%)</t>
+          <t>11 (3.7%)</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>1 (7.7%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>4 (8.3%)</t>
+          <t>3 (6.2%)</t>
         </is>
       </c>
       <c r="I63">
@@ -3204,22 +3204,22 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Comuna 16</t>
+          <t>Comuna 17</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>1 (1.9%)</t>
+          <t>5 (9.3%)</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (5.9%)</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>11 (3.7%)</t>
+          <t>43 (14.3%)</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -3229,7 +3229,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>3 (6.2%)</t>
+          <t>5 (10.4%)</t>
         </is>
       </c>
       <c r="I64">
@@ -3249,12 +3249,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Comuna 17</t>
+          <t>Comuna 18</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>5 (9.3%)</t>
+          <t>3 (5.6%)</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3264,7 +3264,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>43 (14.3%)</t>
+          <t>16 (5.3%)</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -3274,7 +3274,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>5 (10.4%)</t>
+          <t>1 (2.1%)</t>
         </is>
       </c>
       <c r="I65">
@@ -3294,12 +3294,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Comuna 18</t>
+          <t>Comuna 19</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>3 (5.6%)</t>
+          <t>1 (1.9%)</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3309,17 +3309,17 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>16 (5.3%)</t>
+          <t>30 (10.0%)</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (7.7%)</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>1 (2.1%)</t>
+          <t>4 (8.3%)</t>
         </is>
       </c>
       <c r="I66">
@@ -3339,32 +3339,32 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Comuna 19</t>
+          <t>Comuna 2</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>1 (1.9%)</t>
+          <t>4 (7.4%)</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>1 (5.9%)</t>
+          <t>2 (11.8%)</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>30 (10.0%)</t>
+          <t>33 (11.0%)</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>1 (7.7%)</t>
+          <t>2 (15.4%)</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>4 (8.3%)</t>
+          <t>2 (4.2%)</t>
         </is>
       </c>
       <c r="I67">
@@ -3384,22 +3384,22 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Comuna 2</t>
+          <t>Comuna 20</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>4 (7.4%)</t>
+          <t>2 (3.7%)</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2 (11.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>33 (11.0%)</t>
+          <t>4 (1.3%)</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -3429,32 +3429,32 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Comuna 20</t>
+          <t>Comuna 21</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2 (3.7%)</t>
+          <t>4 (7.4%)</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (5.9%)</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>4 (1.3%)</t>
+          <t>12 (4.0%)</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2 (15.4%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2 (4.2%)</t>
+          <t>1 (2.1%)</t>
         </is>
       </c>
       <c r="I69">
@@ -3474,22 +3474,22 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Comuna 21</t>
+          <t>Comuna 22</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>4 (7.4%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>1 (5.9%)</t>
+          <t>3 (17.6%)</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>12 (4.0%)</t>
+          <t>8 (2.7%)</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -3519,17 +3519,17 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Comuna 22</t>
+          <t>Comuna 3</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (1.9%)</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>3 (17.6%)</t>
+          <t>1 (5.9%)</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>1 (2.1%)</t>
+          <t>3 (6.2%)</t>
         </is>
       </c>
       <c r="I71">
@@ -3564,17 +3564,17 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Comuna 3</t>
+          <t>Comuna 4</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>1 (1.9%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>1 (5.9%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -3584,12 +3584,12 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (15.4%)</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>3 (6.2%)</t>
+          <t>1 (2.1%)</t>
         </is>
       </c>
       <c r="I72">
@@ -3609,32 +3609,32 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Comuna 4</t>
+          <t>Comuna 5</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>4 (7.4%)</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (5.9%)</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>8 (2.7%)</t>
+          <t>14 (4.7%)</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2 (15.4%)</t>
+          <t>1 (7.7%)</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>1 (2.1%)</t>
+          <t>4 (8.3%)</t>
         </is>
       </c>
       <c r="I73">
@@ -3654,12 +3654,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Comuna 5</t>
+          <t>Comuna 6</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>4 (7.4%)</t>
+          <t>3 (5.6%)</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3669,17 +3669,17 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>14 (4.7%)</t>
+          <t>16 (5.3%)</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>1 (7.7%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>4 (8.3%)</t>
+          <t>5 (10.4%)</t>
         </is>
       </c>
       <c r="I74">
@@ -3699,22 +3699,22 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Comuna 6</t>
+          <t>Comuna 7</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>3 (5.6%)</t>
+          <t>2 (3.7%)</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>1 (5.9%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>16 (5.3%)</t>
+          <t>9 (3.0%)</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -3724,7 +3724,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>5 (10.4%)</t>
+          <t>1 (2.1%)</t>
         </is>
       </c>
       <c r="I75">
@@ -3744,12 +3744,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Comuna 7</t>
+          <t>Comuna 8</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2 (3.7%)</t>
+          <t>1 (1.9%)</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3759,7 +3759,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>9 (3.0%)</t>
+          <t>11 (3.7%)</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -3789,12 +3789,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Comuna 8</t>
+          <t>Comuna 9</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>1 (1.9%)</t>
+          <t>2 (3.7%)</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3804,7 +3804,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>11 (3.7%)</t>
+          <t>8 (2.7%)</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -3814,7 +3814,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>1 (2.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I77">
@@ -3824,22 +3824,22 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>p19comuna</t>
+          <t>p23_agregado</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Comuna donde vive</t>
+          <t>Propósito principal del viaje (armonizado y detallado con grupos de cuidado: niños/as o jóvenes)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Comuna 9</t>
+          <t>Compras y trámites</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2 (3.7%)</t>
+          <t>13 (24.1%)</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3849,21 +3849,21 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>8 (2.7%)</t>
+          <t>24 (8.0%)</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>3 (23.1%)</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>15 (31.2%)</t>
         </is>
       </c>
       <c r="I78">
-        <v>0.0359</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3879,12 +3879,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Compras y trámites</t>
+          <t>Cuidado y familia (centro educativo, niños/as o jóvenes)</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>13 (24.1%)</t>
+          <t>1 (1.9%)</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3894,17 +3894,17 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>24 (8.0%)</t>
+          <t>1 (0.3%)</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>3 (23.1%)</t>
+          <t>1 (7.7%)</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>15 (31.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="I79">
@@ -3924,7 +3924,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Cuidado y familia (centro educativo, niños/as o jóvenes)</t>
+          <t>Cuidado y familia (otro lugar, niños/as o jóvenes)</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -3939,12 +3939,12 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>1 (0.3%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>1 (7.7%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -3969,22 +3969,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Cuidado y familia (otro lugar, niños/as o jóvenes)</t>
+          <t>Estudio</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>1 (1.9%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>13 (76.5%)</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>9 (3.0%)</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -4014,22 +4014,22 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Estudio</t>
+          <t>Otro</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (3.7%)</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>13 (76.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>9 (3.0%)</t>
+          <t>3 (1.0%)</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -4059,32 +4059,32 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Otro</t>
+          <t>Recreación, salud y actividades personales</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2 (3.7%)</t>
+          <t>27 (50.0%)</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (11.8%)</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>3 (1.0%)</t>
+          <t>35 (11.6%)</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>5 (38.5%)</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>25 (52.1%)</t>
         </is>
       </c>
       <c r="I83">
@@ -4104,12 +4104,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Recreación, salud y actividades personales</t>
+          <t>Trabajo</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>27 (50.0%)</t>
+          <t>8 (14.8%)</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4119,17 +4119,17 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>35 (11.6%)</t>
+          <t>224 (74.4%)</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>5 (38.5%)</t>
+          <t>4 (30.8%)</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>25 (52.1%)</t>
+          <t>5 (10.4%)</t>
         </is>
       </c>
       <c r="I84">
@@ -4149,32 +4149,32 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Trabajo</t>
+          <t>Visitas sociales</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>8 (14.8%)</t>
+          <t>2 (3.7%)</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2 (11.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>224 (74.4%)</t>
+          <t>5 (1.7%)</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>4 (30.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>5 (10.4%)</t>
+          <t>3 (6.2%)</t>
         </is>
       </c>
       <c r="I85">
@@ -4184,42 +4184,37 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>p23_agregado</t>
+          <t>p1edad</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Propósito principal del viaje (armonizado y detallado con grupos de cuidado: niños/as o jóvenes)</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>Visitas sociales</t>
+          <t>¿Cuántos años cumplidos tiene?</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2 (3.7%)</t>
+          <t>60.0 (50.2–70.0)</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>21.0 (19.0–27.0)</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>5 (1.7%)</t>
+          <t>41.0 (31.0–54.0)</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>55.0 (36.0–63.0)</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>3 (6.2%)</t>
+          <t>57.0 (43.8–65.0)</t>
         </is>
       </c>
       <c r="I86">
@@ -4229,270 +4224,230 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>p1edad</t>
+          <t>p18</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>¿Cuántos años cumplidos tiene?</t>
+          <t>Tiempo total de viaje (minutos)</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>60.0 (50.2–70.0)</t>
+          <t>30.0 (16.2–60.0)</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>21.0 (19.0–27.0)</t>
+          <t>40.0 (30.0–55.0)</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>41.0 (31.0–54.0)</t>
+          <t>30.0 (15.0–40.0)</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>55.0 (36.0–63.0)</t>
+          <t>20.0 (17.5–50.0)</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>57.0 (43.8–65.0)</t>
+          <t>20.0 (15.0–30.0)</t>
         </is>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>0.4182</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>p18</t>
+          <t>p18_p1</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Tiempo total de viaje (minutos)</t>
+          <t>Minutos caminando hasta el modo de transporte</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>30.0 (16.2–60.0)</t>
+          <t>10.0 (9.0–15.0)</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>40.0 (30.0–55.0)</t>
+          <t>9.0 (5.0–10.0)</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>30.0 (15.0–40.0)</t>
+          <t>10.0 (5.0–15.0)</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>20.0 (17.5–50.0)</t>
+          <t>3.0 (2.0–4.0)</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>20.0 (15.0–30.0)</t>
+          <t>10.0 (5.0–14.2)</t>
         </is>
       </c>
       <c r="I88">
-        <v>0.4182</v>
+        <v>0.2134</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>p18_p1</t>
+          <t>p18_p2</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Minutos caminando hasta el modo de transporte</t>
+          <t>Minutos de espera del transporte</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>10.0 (9.0–15.0)</t>
+          <t>20.0 (17.5–25.0)</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>9.0 (5.0–10.0)</t>
+          <t>22.5 (8.8–25.0)</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>10.0 (5.0–15.0)</t>
+          <t>20.0 (10.0–30.0)</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>3.0 (2.0–4.0)</t>
+          <t>12.5 (8.8–16.2)</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>10.0 (5.0–14.2)</t>
+          <t>25.0 (11.2–30.0)</t>
         </is>
       </c>
       <c r="I89">
-        <v>0.2134</v>
+        <v>0.8149</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>p18_p2</t>
+          <t>p18_p3</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Minutos de espera del transporte</t>
+          <t>Minutos de trayecto en transporte (arranca -&gt; baja)</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>20.0 (17.5–25.0)</t>
+          <t>40.0 (30.0–60.0)</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>22.5 (8.8–25.0)</t>
+          <t>40.0 (32.5–46.2)</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>20.0 (10.0–30.0)</t>
+          <t>45.0 (27.5–60.0)</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>12.5 (8.8–16.2)</t>
+          <t>45.0 (37.5–52.5)</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>25.0 (11.2–30.0)</t>
+          <t>30.0 (25.0–45.0)</t>
         </is>
       </c>
       <c r="I90">
-        <v>0.8149</v>
+        <v>0.6362</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>p18_p3</t>
+          <t>p18_p4</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Minutos de trayecto en transporte (arranca -&gt; baja)</t>
+          <t>Minutos caminando después del descenso</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>40.0 (30.0–60.0)</t>
+          <t>10.0 (7.5–17.5)</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>40.0 (32.5–46.2)</t>
+          <t>7.5 (4.2–16.2)</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>45.0 (27.5–60.0)</t>
+          <t>10.0 (5.0–15.0)</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>45.0 (37.5–52.5)</t>
+          <t>5.5 (3.2–7.8)</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>30.0 (25.0–45.0)</t>
+          <t>5.0 (5.0–10.0)</t>
         </is>
       </c>
       <c r="I91">
-        <v>0.6362</v>
+        <v>0.3206</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>p18_p4</t>
+          <t>p18_c1</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Minutos caminando después del descenso</t>
+          <t>Minutos de la caminata a su destino</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>10.0 (7.5–17.5)</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>7.5 (4.2–16.2)</t>
+          <t>90.0 (30.0–90.0)</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>10.0 (5.0–15.0)</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>5.5 (3.2–7.8)</t>
+          <t>15.0 (10.0–20.0)</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>5.0 (5.0–10.0)</t>
+          <t>15.0 (15.0–15.0)</t>
         </is>
       </c>
       <c r="I92">
-        <v>0.3206</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>p18_c1</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Minutos de la caminata a su destino</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>90.0 (30.0–90.0)</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>15.0 (10.0–20.0)</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>15.0 (15.0–15.0)</t>
-        </is>
-      </c>
-      <c r="I93">
         <v>0.3286</v>
       </c>
     </row>
